--- a/Product/StaticData/Setting.xlsx
+++ b/Product/StaticData/Setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -132,6 +132,57 @@
   </si>
   <si>
     <t>大地图_时间_加快的流速</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>World_Trade_MoveSpeed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大地图_商队_移动速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>World_Trade_InitGold</t>
+    </r>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大地图_商队_初始资金</t>
+    </r>
   </si>
   <si>
     <t>id</t>
@@ -750,12 +801,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1105,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1271,6 +1325,28 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1368,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>

--- a/Product/StaticData/Setting.xlsx
+++ b/Product/StaticData/Setting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -146,6 +146,9 @@
     </r>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -183,6 +186,9 @@
       </rPr>
       <t>大地图_商队_初始资金</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>id</t>
@@ -1159,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1332,21 +1338,26 @@
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
